--- a/biology/Biologie cellulaire et moléculaire/Desmosome/Desmosome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Desmosome/Desmosome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un desmosome est une région où la membrane plasmique d'une cellule adhère à une cellule adjacente ou à la lame basale sous-jacente, il est alors appelé hémidesmosome. La nature des filaments intermédiaires est variable (cytokératine dans les cellules épithéliales, vimentine dans les fibroblastes et les endodermes, neurofilament dans les cellules nerveuses ou encore lamine dans les noyaux).
 </t>
@@ -511,7 +523,9 @@
           <t>Structure du type macula adherens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les desmosomes du type macula adherens, se retrouvant presque exclusivement dans les cellules épithéliales par les filaments intermédiaires  associés, sur leur extrémité COOH intracytoplasmique, à des cadhérines desmosomales.
 Ainsi les microfilaments intermédiaires ne sont pas liés les uns aux autres, ils sont ancrés dans une plaque cytoplasmique dense, constituées de desmoglobine (lié au filaments) et de desmoplakine (liés à la desmocolline ou la desmogléine) grâce à ces cadhérines. L'espace intercellulaires entre deux plaques desmosomales s'appelle la desmoglée.
@@ -547,7 +561,9 @@
           <t>Les hémidesmosomes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hémidesmosomes sont semblables aux desmosomes de type macula adherens sauf qu'ils relient la cellule à la lame basale. Il n'y a donc qu'une seule moitié du dispositif en place. Les composants transmembranaires sont l'intégrine alpha6beta4, l'antigène de la pemphigoïde bulleuse de 180kDa ou BP180 et la molécule CD151. La plaque cytoplasmique interne est reliée aux filaments intermédiaires de type cytokératines par l'intermédiaire de la plectine et de l'antigène de la pemphigoïde bulleuse de 230 kDa ou BP230.
 La laminine est l'intermédiaire entre les différents types de collagène formant la lame basale ou la matrice extracellulaire, et l'hémidesmosomes.
@@ -580,7 +596,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les desmosomes et les hémidesmosomes sont des jonctions qui assurent la solidité mécanique du tissu partout où cela est nécessaire. Un desmosome retient fermement les cellules entre elles de façon qu'elles forment un tissu résistant, renforcé par des filaments intermédiaires. Elles permettent aussi la transmission des signaux intracellulaires, notamment par le biais de la caténine bêta.
 Lors de l'embryogénèse, les macula adherens interviennent dans les processus fondamentaux au moment de la mise en place des feuillets embryonnaires et lors de la différenciation du tube neural.
@@ -613,9 +631,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dysplasie ventriculaire droite arythmogène est une maladie du desmosome cardiaque[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dysplasie ventriculaire droite arythmogène est une maladie du desmosome cardiaque.
 </t>
         </is>
       </c>
